--- a/biology/Zoologie/Duberria_lutrix/Duberria_lutrix.xlsx
+++ b/biology/Zoologie/Duberria_lutrix/Duberria_lutrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Duberria lutrix est une espèce de serpents de la famille des Lamprophiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Duberria lutrix est une espèce de serpents de la famille des Lamprophiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, au Swaziland, au Mozambique, au Zimbabwe, en République démocratique du Congo, en Tanzanie, au Rwanda, au Burundi, en Ouganda, au Kenya et en Éthiopie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, au Swaziland, au Mozambique, au Zimbabwe, en République démocratique du Congo, en Tanzanie, au Rwanda, au Burundi, en Ouganda, au Kenya et en Éthiopie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (9 septembre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (9 septembre 2014) :
 Duberria lutrix abyssinica (Boulenger, 1894)
 Duberria lutrix atriventris (Sternfeld, 1912)
 Duberria lutrix basilewskyi Skelton-Bourgeois, 1961
@@ -577,9 +593,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Duberria lutrix rhodesiana[3] a été élevée au rang d'espèce par Broadley et Blaylock en 2013[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Duberria lutrix rhodesiana a été élevée au rang d'espèce par Broadley et Blaylock en 2013.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1894 : Catalogue of the Snakes in the British Museum (Natural History). Volume II., Containing the Conclusion of the Colubridæ Aglyphæ, p. 1-382 (texte intégral).
 Laurent, 1956 : Contribution à l'herpetologie de la région des Grandes Lacs de l'Afrique centrale. Annales du Musée Royal du Congo Belge, vol. 48, p. 1-390.
